--- a/SVs_identification/results/Supplementary table 1 - counts_summary.xlsx
+++ b/SVs_identification/results/Supplementary table 1 - counts_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/breedmaps/SVs_identification/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E135F-CBE8-5C44-9386-D2C4EA1C2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB716190-1DBB-BC40-8030-984801D815AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C59E4963-226C-F644-A820-EC5271257A7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="5" xr2:uid="{C59E4963-226C-F644-A820-EC5271257A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="SV types and total counts" sheetId="1" r:id="rId1"/>
@@ -3372,7 +3372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B19324A-552D-B34B-9494-AC9A1A8ADE1D}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D66" sqref="D66:H66"/>
     </sheetView>
   </sheetViews>
@@ -5894,7 +5894,7 @@
         <v>278</v>
       </c>
       <c r="B66" s="15">
-        <f t="shared" ref="B66:M66" si="4">AVERAGE(B57:B65)</f>
+        <f t="shared" ref="B66:L66" si="4">AVERAGE(B57:B65)</f>
         <v>7842</v>
       </c>
       <c r="C66" s="15">
@@ -16398,8 +16398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E856FAA-2725-4A48-9253-224A499DF35B}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
